--- a/SERIES/Lista4/ConsumoEnergiaEAgua.xlsx
+++ b/SERIES/Lista4/ConsumoEnergiaEAgua.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tailine.nonato/Documents/VSCode/SERIES/Lista4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E2778C-9D76-E04A-8243-131F2EDD9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450ACF5-85BE-6940-B806-EB118FBB6937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,8 +444,8 @@
   <dimension ref="A1:K323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E323" sqref="E323"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A274" s="11">
-        <f t="shared" ref="A274:A323" si="15">A273+31</f>
+        <f t="shared" ref="A274:A322" si="15">A273+31</f>
         <v>43862</v>
       </c>
       <c r="C274">
@@ -6971,7 +6971,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A316" s="11">
-        <f t="shared" si="15"/>
+        <f>A315+31</f>
         <v>45164</v>
       </c>
       <c r="C316">
@@ -7216,8 +7216,8 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A323" s="11">
-        <f>A322+32</f>
-        <v>45382</v>
+        <f>A322+31</f>
+        <v>45381</v>
       </c>
       <c r="C323">
         <v>419</v>
